--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rfca081fe571f41f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R46fa7b84bfd14567"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -91,6 +91,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -114,6 +116,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
   </c:chart>
 </c:chartSpace>
@@ -145,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R21bcc6dc69d34d8c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbcdf179c035d497a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -206,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R86cee9251d32472d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R253f9691de944c2e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R46fa7b84bfd14567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd82aa7dfa7f34433"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbcdf179c035d497a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f308612bf5847b1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R253f9691de944c2e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R95eadd3d59064817"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd82aa7dfa7f34433"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R05415a0103654ad0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f308612bf5847b1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0afd99ea59aa469f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R95eadd3d59064817"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc1e7eacb94904197"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R05415a0103654ad0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R48c66b3b43a44ee1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0afd99ea59aa469f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re01c848d57714cfa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc1e7eacb94904197"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5630edd634354478"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R48c66b3b43a44ee1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Reb178e792d7d4ed6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re01c848d57714cfa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47270b40d8a34a98"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5630edd634354478"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra85cb14f07034902"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Reb178e792d7d4ed6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R748bfc2fa91346e4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47270b40d8a34a98"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ref213c1875e449cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra85cb14f07034902"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b91986a93304926"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R748bfc2fa91346e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R68235885b516461a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,7 +149,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ref213c1875e449cd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb591d76597e04bfb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +210,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b91986a93304926"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R31cf6b682f8349ae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R68235885b516461a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R875a169203264031"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -149,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb591d76597e04bfb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc70acb9a95ad4447"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -210,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R31cf6b682f8349ae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9f716e4786446be"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R875a169203264031"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd3a5cbdb3e0f4805"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc70acb9a95ad4447"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c82a8be379041ec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9f716e4786446be"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc24f8f49a5104958"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd3a5cbdb3e0f4805"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R8b2f9c9bb2ff4f5e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c82a8be379041ec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf878f9e2562543f0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc24f8f49a5104958"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1580eb1e30b14492"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R8b2f9c9bb2ff4f5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R65ba6c822a3b4055"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf878f9e2562543f0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R699be36598734f1b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1580eb1e30b14492"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30fca86a4aed45a0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R65ba6c822a3b4055"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R189638b678ed4321"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R699be36598734f1b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78fb47ede9a042e6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30fca86a4aed45a0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bd12db1c5694b48"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R189638b678ed4321"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rf6b6b1fe90234dea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78fb47ede9a042e6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree40018f4e0445fd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bd12db1c5694b48"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42c6a85dd8f941bc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rf6b6b1fe90234dea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R4051886296c74c25"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree40018f4e0445fd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87cccb6b5a1049ab"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42c6a85dd8f941bc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62313a07c644493e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R4051886296c74c25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R87f526789fe44f9d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87cccb6b5a1049ab"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88ca8cf812874f76"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62313a07c644493e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf8af061151c342ad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R87f526789fe44f9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6012e769157948f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88ca8cf812874f76"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdaa847d4c53346fe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf8af061151c342ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb40b218854241ef"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6012e769157948f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R1c829a1ab06443b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdaa847d4c53346fe"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac238bf1e0f94e77"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb40b218854241ef"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89df5894dd29492b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R1c829a1ab06443b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R16d56d59a7b845d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac238bf1e0f94e77"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74b63afb06c14751"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89df5894dd29492b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f8d8022536e4590"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R16d56d59a7b845d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7da2805b485e4efc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74b63afb06c14751"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5269237122174a05"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f8d8022536e4590"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R59b5a7e46f15439c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7da2805b485e4efc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R74950d0c3811453a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5269237122174a05"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0eb34c63c8e34a16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R59b5a7e46f15439c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68cb3d03f09b48b9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R74950d0c3811453a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Re23d2790f4dc4fc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0eb34c63c8e34a16"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99c28cf3bc1446a5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68cb3d03f09b48b9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d461413af504748"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Re23d2790f4dc4fc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R3b3affabe814422e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99c28cf3bc1446a5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cf5d9403abf4326"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d461413af504748"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e520361ea404fb2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R3b3affabe814422e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R795730dee59842c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cf5d9403abf4326"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfd28d3796b94852"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e520361ea404fb2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6a909dbf0257491a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R795730dee59842c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R55c6f199a54543c0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfd28d3796b94852"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc265b775be384ef4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6a909dbf0257491a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d55d696b6df4618"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R55c6f199a54543c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7533ca216142410c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc265b775be384ef4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R13c6031ee33143d7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d55d696b6df4618"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2e247a6108a4f26"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7533ca216142410c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R160b08fe365e4224"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R13c6031ee33143d7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6da0a8c84b15426e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2e247a6108a4f26"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R912c4c9779ee4160"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R160b08fe365e4224"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R63478ede146b4eb2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6da0a8c84b15426e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1c92fc5b5984145"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R912c4c9779ee4160"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R08955bfad0c447a9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R63478ede146b4eb2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R2e73c560ce304ac2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -150,7 +150,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1c92fc5b5984145"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e40b133e5ac4e46"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +211,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R08955bfad0c447a9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R029da6fcea194384"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R2e73c560ce304ac2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rbcbc3f078a374259"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -102,6 +102,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Market Share'!$A$2:$A$6</c:f>
@@ -150,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e40b133e5ac4e46"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9d91ad8e9f8e4115"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -211,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R029da6fcea194384"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Refdb1a9a70814bb3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rbcbc3f078a374259"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Red25f85432f84d96"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -153,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9d91ad8e9f8e4115"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbf78e476fe5f436f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Refdb1a9a70814bb3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9223339c919b43eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Red25f85432f84d96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd81e3934102446ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -153,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbf78e476fe5f436f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra61567b077864d2b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9223339c919b43eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea93331838c44b3c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rd81e3934102446ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R08e48ca89e3e435c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -153,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra61567b077864d2b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60a1c61465a34436"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea93331838c44b3c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb320de6ab5e04ae2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R08e48ca89e3e435c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R10e9f6de46b44ee4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -153,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60a1c61465a34436"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbeb681dafebf4e42"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb320de6ab5e04ae2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf40a20bce7ad4f53"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R10e9f6de46b44ee4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rcdcc833ffb934023"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -153,7 +153,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbeb681dafebf4e42"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf83ab9a9697845e9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +214,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf40a20bce7ad4f53"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ecf143938ba4a00"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/43_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rcdcc833ffb934023"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R989a9bb771444387"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -116,6 +116,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
@@ -153,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf83ab9a9697845e9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3ca75c0a4a78477c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -214,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ecf143938ba4a00"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R52a42e4d201741ac"/>
 </x:worksheet>
 </file>